--- a/SQL/Format des fichiers a charger.xlsx
+++ b/SQL/Format des fichiers a charger.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21629"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\-DUT INFORMATIQUE\PTUT\SQL\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\-DUT INFORMATIQUE\PTUT\Cohortes\SQL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1AA0B78-B65C-4041-B292-8796BED5D775}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F12DD228-9C29-4E92-80AB-24B22B2C6D0B}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13332" yWindow="1404" windowWidth="17280" windowHeight="8964" xr2:uid="{6446398F-F350-4F57-A6B3-FF1DE4A9C7B2}"/>
+    <workbookView xWindow="13908" yWindow="1836" windowWidth="17280" windowHeight="8964" xr2:uid="{6446398F-F350-4F57-A6B3-FF1DE4A9C7B2}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -424,14 +424,14 @@
   </cellStyleXfs>
   <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -754,8 +754,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B8E400B7-110A-41FB-BE8E-9EEA4A753B51}">
   <dimension ref="A1:AF13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="V9" sqref="V9"/>
+    <sheetView tabSelected="1" topLeftCell="P1" workbookViewId="0">
+      <selection activeCell="V23" sqref="V23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -769,334 +769,334 @@
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="F1" s="4"/>
-      <c r="G1" s="4"/>
-      <c r="H1" s="4"/>
-      <c r="I1" s="4"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
     </row>
     <row r="2" spans="1:32" x14ac:dyDescent="0.3">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="3"/>
-      <c r="C2" s="3" t="s">
+      <c r="B2" s="4"/>
+      <c r="C2" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="E2" s="4"/>
-      <c r="F2" s="4"/>
-      <c r="G2" s="4"/>
-      <c r="H2" s="4"/>
-      <c r="I2" s="4"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1"/>
+      <c r="I2" s="1"/>
     </row>
-    <row r="3" spans="1:32" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="1" t="s">
+    <row r="3" spans="1:32" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C3" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="D3" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="E3" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="F3" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="G3" s="1" t="s">
+      <c r="G3" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="H3" s="1" t="s">
+      <c r="H3" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="I3" s="1" t="s">
+      <c r="I3" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="J3" s="1" t="s">
+      <c r="J3" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="K3" s="1" t="s">
+      <c r="K3" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="L3" s="1" t="s">
+      <c r="L3" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="M3" s="1" t="s">
+      <c r="M3" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="N3" s="1" t="s">
+      <c r="N3" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="O3" s="1" t="s">
+      <c r="O3" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="P3" s="1" t="s">
+      <c r="P3" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="Q3" s="1" t="s">
+      <c r="Q3" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="R3" s="1" t="s">
+      <c r="R3" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="S3" s="1" t="s">
+      <c r="S3" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="T3" s="1" t="s">
+      <c r="T3" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="U3" s="1" t="s">
+      <c r="U3" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="V3" s="1" t="s">
+      <c r="V3" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="W3" s="1" t="s">
+      <c r="W3" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="X3" s="1" t="s">
+      <c r="X3" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="Y3" s="1" t="s">
+      <c r="Y3" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="Z3" s="1" t="s">
+      <c r="Z3" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="AA3" s="1" t="s">
+      <c r="AA3" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="AB3" s="1" t="s">
+      <c r="AB3" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="AC3" s="1" t="s">
+      <c r="AC3" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="AD3" s="1" t="s">
+      <c r="AD3" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="AE3" s="1" t="s">
+      <c r="AE3" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="AF3" s="1"/>
+      <c r="AF3" s="2"/>
     </row>
     <row r="4" spans="1:32" x14ac:dyDescent="0.3">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="3"/>
-      <c r="C4" s="3" t="s">
+      <c r="B4" s="4"/>
+      <c r="C4" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="D4" s="4" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="5" spans="1:32" x14ac:dyDescent="0.3">
-      <c r="A5" s="1" t="s">
+      <c r="A5" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B5" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="C5" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="D5" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="E5" s="1" t="s">
+      <c r="E5" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="F5" s="1" t="s">
+      <c r="F5" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="G5" s="1" t="s">
+      <c r="G5" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="H5" s="1" t="s">
+      <c r="H5" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="I5" s="1" t="s">
+      <c r="I5" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="J5" s="1" t="s">
+      <c r="J5" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="K5" s="1" t="s">
+      <c r="K5" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="L5" s="1" t="s">
+      <c r="L5" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="M5" s="1" t="s">
+      <c r="M5" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="N5" s="1" t="s">
+      <c r="N5" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="O5" s="1" t="s">
+      <c r="O5" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="P5" s="1" t="s">
+      <c r="P5" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="Q5" s="1" t="s">
+      <c r="Q5" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="R5" s="1" t="s">
+      <c r="R5" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="S5" s="1" t="s">
+      <c r="S5" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="T5" s="1" t="s">
+      <c r="T5" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="U5" s="1" t="s">
+      <c r="U5" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="V5" s="1" t="s">
+      <c r="V5" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="W5" s="1" t="s">
+      <c r="W5" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="X5" s="1" t="s">
+      <c r="X5" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="Y5" s="1" t="s">
+      <c r="Y5" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="Z5" s="1" t="s">
+      <c r="Z5" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="AA5" s="1" t="s">
+      <c r="AA5" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="AB5" s="1" t="s">
+      <c r="AB5" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="AC5" s="1" t="s">
+      <c r="AC5" s="2" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="6" spans="1:32" x14ac:dyDescent="0.3">
-      <c r="A6" s="3" t="s">
+      <c r="A6" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="B6" s="3"/>
-      <c r="C6" s="3" t="s">
+      <c r="B6" s="4"/>
+      <c r="C6" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="D6" s="3" t="s">
+      <c r="D6" s="4" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="7" spans="1:32" x14ac:dyDescent="0.3">
-      <c r="A7" s="1" t="s">
+      <c r="A7" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="B7" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="C7" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="D7" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="E7" s="1" t="s">
+      <c r="E7" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="F7" s="1" t="s">
+      <c r="F7" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="G7" s="1" t="s">
+      <c r="G7" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="H7" s="1" t="s">
+      <c r="H7" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="I7" s="1" t="s">
+      <c r="I7" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="J7" s="1" t="s">
+      <c r="J7" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="K7" s="1" t="s">
+      <c r="K7" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="L7" s="1" t="s">
+      <c r="L7" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="M7" s="1" t="s">
+      <c r="M7" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="N7" s="1" t="s">
+      <c r="N7" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="O7" s="1" t="s">
+      <c r="O7" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="P7" s="1" t="s">
+      <c r="P7" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="Q7" s="1" t="s">
+      <c r="Q7" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="R7" s="1" t="s">
+      <c r="R7" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="S7" s="1" t="s">
+      <c r="S7" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="T7" s="1" t="s">
+      <c r="T7" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="U7" s="1" t="s">
+      <c r="U7" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="V7" s="1" t="s">
+      <c r="V7" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="W7" s="1" t="s">
+      <c r="W7" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="X7" s="1" t="s">
+      <c r="X7" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="Y7" s="1" t="s">
+      <c r="Y7" s="2" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="8" spans="1:32" x14ac:dyDescent="0.3">
-      <c r="A8" s="3" t="s">
+      <c r="A8" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="B8" s="3"/>
-      <c r="C8" s="3" t="s">
+      <c r="B8" s="4"/>
+      <c r="C8" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="D8" s="3" t="s">
+      <c r="D8" s="4" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="9" spans="1:32" x14ac:dyDescent="0.3">
-      <c r="A9" s="1" t="s">
+      <c r="A9" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="B9" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C9" s="5" t="s">
@@ -1179,7 +1179,7 @@
       </c>
     </row>
     <row r="13" spans="1:32" x14ac:dyDescent="0.3">
-      <c r="H13" s="1"/>
+      <c r="H13" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="1">
